--- a/气象/气温颜色/气温颜色.xlsx
+++ b/气象/气温颜色/气温颜色.xlsx
@@ -2,20 +2,21 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文档\GIT SYNC\default\气象\气温颜色\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{234902FE-240A-4F1E-877E-78983F50712E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{566B2409-D597-4964-910E-8A3A6CE99033}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{F39AAB59-546E-453B-99D4-F4E8F2388CF9}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="3" xr2:uid="{F39AAB59-546E-453B-99D4-F4E8F2388CF9}"/>
   </bookViews>
   <sheets>
     <sheet name="渐变色" sheetId="1" r:id="rId1"/>
     <sheet name="色阶" sheetId="2" r:id="rId2"/>
     <sheet name="对照表" sheetId="3" r:id="rId3"/>
+    <sheet name="VBA Only" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="174">
   <si>
     <t>249,92,164</t>
   </si>
@@ -373,6 +374,218 @@
   </si>
   <si>
     <t>&gt; 50</t>
+  </si>
+  <si>
+    <t>249,81,158</t>
+  </si>
+  <si>
+    <t>248,70,152</t>
+  </si>
+  <si>
+    <t>248,59,145</t>
+  </si>
+  <si>
+    <t>247,48,139</t>
+  </si>
+  <si>
+    <t>240,36,136</t>
+  </si>
+  <si>
+    <t>234,34,138</t>
+  </si>
+  <si>
+    <t>227,33,141</t>
+  </si>
+  <si>
+    <t>221,31,143</t>
+  </si>
+  <si>
+    <t>207,29,148</t>
+  </si>
+  <si>
+    <t>201,27,151</t>
+  </si>
+  <si>
+    <t>194,26,153</t>
+  </si>
+  <si>
+    <t>188,24,156</t>
+  </si>
+  <si>
+    <t>174,22,161</t>
+  </si>
+  <si>
+    <t>168,20,163</t>
+  </si>
+  <si>
+    <t>161,19,166</t>
+  </si>
+  <si>
+    <t>155,17,168</t>
+  </si>
+  <si>
+    <t>141,15,173</t>
+  </si>
+  <si>
+    <t>134,13,176</t>
+  </si>
+  <si>
+    <t>128,12,178</t>
+  </si>
+  <si>
+    <t>121,10,181</t>
+  </si>
+  <si>
+    <t>108,9,181</t>
+  </si>
+  <si>
+    <t>103,10,179</t>
+  </si>
+  <si>
+    <t>97,10,177</t>
+  </si>
+  <si>
+    <t>92,11,175</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>83,11,172</t>
+  </si>
+  <si>
+    <t>80,11,171</t>
+  </si>
+  <si>
+    <t>78,12,170</t>
+  </si>
+  <si>
+    <t>75,12,169</t>
+  </si>
+  <si>
+    <t>69,12,167</t>
+  </si>
+  <si>
+    <t>66,12,166</t>
+  </si>
+  <si>
+    <t>64,12,165</t>
+  </si>
+  <si>
+    <t>61,12,164</t>
+  </si>
+  <si>
+    <t>59,21,171</t>
+  </si>
+  <si>
+    <t>60,29,178</t>
+  </si>
+  <si>
+    <t>61,38,186</t>
+  </si>
+  <si>
+    <t>62,46,193</t>
+  </si>
+  <si>
+    <t>64,63,208</t>
+  </si>
+  <si>
+    <t>65,72,216</t>
+  </si>
+  <si>
+    <t>65,80,223</t>
+  </si>
+  <si>
+    <t>66,89,231</t>
+  </si>
+  <si>
+    <t>196,201,97</t>
+  </si>
+  <si>
+    <t>189,199,90</t>
+  </si>
+  <si>
+    <t>174,190,68</t>
+  </si>
+  <si>
+    <t>166,184,52</t>
+  </si>
+  <si>
+    <t>158,178,36</t>
+  </si>
+  <si>
+    <t>150,172,20</t>
+  </si>
+  <si>
+    <t>163,170,3</t>
+  </si>
+  <si>
+    <t>183,174,2</t>
+  </si>
+  <si>
+    <t>204,179,2</t>
+  </si>
+  <si>
+    <t>224,183,1</t>
+  </si>
+  <si>
+    <t>239,171,1</t>
+  </si>
+  <si>
+    <t>233,155,1</t>
+  </si>
+  <si>
+    <t>227,138,2</t>
+  </si>
+  <si>
+    <t>221,122,2</t>
+  </si>
+  <si>
+    <t>210,95,2</t>
+  </si>
+  <si>
+    <t>205,83,2</t>
+  </si>
+  <si>
+    <t>201,72,1</t>
+  </si>
+  <si>
+    <t>196,60,1</t>
+  </si>
+  <si>
+    <t>174,43,3</t>
+  </si>
+  <si>
+    <t>157,37,6</t>
+  </si>
+  <si>
+    <t>139,32,8</t>
+  </si>
+  <si>
+    <t>122,26,11</t>
+  </si>
+  <si>
+    <t>96,20,16</t>
+  </si>
+  <si>
+    <t>87,20,18</t>
+  </si>
+  <si>
+    <t>78,21,20</t>
+  </si>
+  <si>
+    <t>69,21,22</t>
+  </si>
+  <si>
+    <t>48,17,19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>36,13,14</t>
+  </si>
+  <si>
+    <t>24,8,10</t>
+  </si>
+  <si>
+    <t>12,4,5</t>
   </si>
 </sst>
 </file>
@@ -798,9 +1011,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D51A6BCF-4E21-4F18-8E61-CFE627055BDA}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
@@ -1211,6 +1425,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D665CAA-C18E-4815-A9FE-2BA2EAE7CC94}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:J53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2285,10 +2500,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB8C5B0E-C5AA-4C2F-B2EF-41D89B3B9623}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -2524,4 +2740,1073 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80B72386-D55D-4684-95DC-E015852A389A}">
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="A2:B132"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="16.59765625" customWidth="1"/>
+    <col min="2" max="2" width="12.59765625" style="10" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>-75</v>
+      </c>
+      <c r="B2" s="11">
+        <v>255255255</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>-74</v>
+      </c>
+      <c r="B3" s="11">
+        <v>255244249</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>-73</v>
+      </c>
+      <c r="B4" s="11">
+        <v>254233243</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>-72</v>
+      </c>
+      <c r="B5" s="11">
+        <v>254223237</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>-71</v>
+      </c>
+      <c r="B6" s="11">
+        <v>253212231</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>-70</v>
+      </c>
+      <c r="B7" s="11">
+        <v>253201225</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>-69</v>
+      </c>
+      <c r="B8" s="11">
+        <v>253190219</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>-68</v>
+      </c>
+      <c r="B9" s="11">
+        <v>252179213</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>-67</v>
+      </c>
+      <c r="B10" s="11">
+        <v>252168206</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>-66</v>
+      </c>
+      <c r="B11" s="11">
+        <v>251157200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>-65</v>
+      </c>
+      <c r="B12" s="11">
+        <v>251146194</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>-64</v>
+      </c>
+      <c r="B13" s="11">
+        <v>251135188</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <v>-63</v>
+      </c>
+      <c r="B14" s="11">
+        <v>250124182</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <v>-62</v>
+      </c>
+      <c r="B15" s="11">
+        <v>250114176</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A16">
+        <v>-61</v>
+      </c>
+      <c r="B16" s="11">
+        <v>249103170</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A17">
+        <v>-60</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A18">
+        <v>-59</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A19">
+        <v>-58</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A20">
+        <v>-57</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A21">
+        <v>-56</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A22">
+        <v>-55</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A23">
+        <v>-54</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A24">
+        <v>-53</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A25">
+        <v>-52</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A26">
+        <v>-51</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A27">
+        <v>-50</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A28">
+        <v>-49</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A29">
+        <v>-48</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A30">
+        <v>-47</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A31">
+        <v>-46</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A32">
+        <v>-45</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A33">
+        <v>-44</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A34">
+        <v>-43</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A35">
+        <v>-42</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A36">
+        <v>-41</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A37">
+        <v>-40</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A38">
+        <v>-39</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A39">
+        <v>-38</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A40">
+        <v>-37</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A41">
+        <v>-36</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A42">
+        <v>-35</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A43">
+        <v>-34</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A44">
+        <v>-33</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A45">
+        <v>-32</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A46">
+        <v>-31</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A47">
+        <v>-30</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A48">
+        <v>-29</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A49">
+        <v>-28</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A50">
+        <v>-27</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A51">
+        <v>-26</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A52">
+        <v>-25</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A53">
+        <v>-24</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A54">
+        <v>-23</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A55">
+        <v>-22</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A56">
+        <v>-21</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A57">
+        <v>-20</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A58">
+        <v>-19</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A59">
+        <v>-18</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A60">
+        <v>-17</v>
+      </c>
+      <c r="B60" s="10" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A61">
+        <v>-16</v>
+      </c>
+      <c r="B61" s="10" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A62">
+        <v>-15</v>
+      </c>
+      <c r="B62" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A63">
+        <v>-14</v>
+      </c>
+      <c r="B63" s="10" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A64">
+        <v>-13</v>
+      </c>
+      <c r="B64" s="10" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A65">
+        <v>-12</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A66">
+        <v>-11</v>
+      </c>
+      <c r="B66" s="10" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A67">
+        <v>-10</v>
+      </c>
+      <c r="B67" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A68">
+        <v>-9</v>
+      </c>
+      <c r="B68" s="11">
+        <v>68107238</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A69">
+        <v>-8</v>
+      </c>
+      <c r="B69" s="11">
+        <v>69118238</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A70">
+        <v>-7</v>
+      </c>
+      <c r="B70" s="11">
+        <v>70128239</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A71">
+        <v>-6</v>
+      </c>
+      <c r="B71" s="11">
+        <v>71139239</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A72">
+        <v>-5</v>
+      </c>
+      <c r="B72" s="11">
+        <v>72149239</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A73">
+        <v>-4</v>
+      </c>
+      <c r="B73" s="11">
+        <v>73159239</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A74">
+        <v>-3</v>
+      </c>
+      <c r="B74" s="11">
+        <v>74170239</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A75">
+        <v>-2</v>
+      </c>
+      <c r="B75" s="11">
+        <v>74180240</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A76">
+        <v>-1</v>
+      </c>
+      <c r="B76" s="11">
+        <v>75191240</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A77">
+        <v>0</v>
+      </c>
+      <c r="B77" s="11">
+        <v>76201240</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A78">
+        <v>1</v>
+      </c>
+      <c r="B78" s="11">
+        <v>109207234</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A79">
+        <v>2</v>
+      </c>
+      <c r="B79" s="11">
+        <v>143214228</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A80">
+        <v>3</v>
+      </c>
+      <c r="B80" s="11">
+        <v>176220221</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A81">
+        <v>4</v>
+      </c>
+      <c r="B81" s="11">
+        <v>210227215</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A82">
+        <v>5</v>
+      </c>
+      <c r="B82" s="11">
+        <v>243233209</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A83">
+        <v>6</v>
+      </c>
+      <c r="B83" s="11">
+        <v>240229200</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A84">
+        <v>7</v>
+      </c>
+      <c r="B84" s="11">
+        <v>238224191</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A85">
+        <v>8</v>
+      </c>
+      <c r="B85" s="11">
+        <v>235220181</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A86">
+        <v>9</v>
+      </c>
+      <c r="B86" s="11">
+        <v>233215172</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A87">
+        <v>10</v>
+      </c>
+      <c r="B87" s="11">
+        <v>230211163</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A88">
+        <v>11</v>
+      </c>
+      <c r="B88" s="11">
+        <v>227211154</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A89">
+        <v>12</v>
+      </c>
+      <c r="B89" s="11">
+        <v>224210144</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A90">
+        <v>13</v>
+      </c>
+      <c r="B90" s="11">
+        <v>222210135</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A91">
+        <v>14</v>
+      </c>
+      <c r="B91" s="11">
+        <v>219209125</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A92">
+        <v>15</v>
+      </c>
+      <c r="B92" s="11">
+        <v>216209116</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A93">
+        <v>16</v>
+      </c>
+      <c r="B93" s="11">
+        <v>209206110</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A94">
+        <v>17</v>
+      </c>
+      <c r="B94" s="11">
+        <v>202204103</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A95">
+        <v>18</v>
+      </c>
+      <c r="B95" s="10" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A96">
+        <v>19</v>
+      </c>
+      <c r="B96" s="10" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A97">
+        <v>20</v>
+      </c>
+      <c r="B97" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A98">
+        <v>21</v>
+      </c>
+      <c r="B98" s="10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A99">
+        <v>22</v>
+      </c>
+      <c r="B99" s="10" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A100">
+        <v>23</v>
+      </c>
+      <c r="B100" s="10" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A101">
+        <v>24</v>
+      </c>
+      <c r="B101" s="10" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A102">
+        <v>25</v>
+      </c>
+      <c r="B102" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A103">
+        <v>26</v>
+      </c>
+      <c r="B103" s="10" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A104">
+        <v>27</v>
+      </c>
+      <c r="B104" s="10" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A105">
+        <v>28</v>
+      </c>
+      <c r="B105" s="10" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A106">
+        <v>29</v>
+      </c>
+      <c r="B106" s="10" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A107">
+        <v>30</v>
+      </c>
+      <c r="B107" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A108">
+        <v>31</v>
+      </c>
+      <c r="B108" s="10" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A109">
+        <v>32</v>
+      </c>
+      <c r="B109" s="10" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A110">
+        <v>33</v>
+      </c>
+      <c r="B110" s="10" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A111">
+        <v>34</v>
+      </c>
+      <c r="B111" s="10" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A112">
+        <v>35</v>
+      </c>
+      <c r="B112" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A113">
+        <v>36</v>
+      </c>
+      <c r="B113" s="10" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A114">
+        <v>37</v>
+      </c>
+      <c r="B114" s="10" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A115">
+        <v>38</v>
+      </c>
+      <c r="B115" s="10" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A116">
+        <v>39</v>
+      </c>
+      <c r="B116" s="10" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A117">
+        <v>40</v>
+      </c>
+      <c r="B117" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A118">
+        <v>41</v>
+      </c>
+      <c r="B118" s="10" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A119">
+        <v>42</v>
+      </c>
+      <c r="B119" s="10" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A120">
+        <v>43</v>
+      </c>
+      <c r="B120" s="10" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A121">
+        <v>44</v>
+      </c>
+      <c r="B121" s="10" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A122">
+        <v>45</v>
+      </c>
+      <c r="B122" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A123">
+        <v>46</v>
+      </c>
+      <c r="B123" s="10" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A124">
+        <v>47</v>
+      </c>
+      <c r="B124" s="10" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A125">
+        <v>48</v>
+      </c>
+      <c r="B125" s="10" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A126">
+        <v>49</v>
+      </c>
+      <c r="B126" s="10" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A127">
+        <v>50</v>
+      </c>
+      <c r="B127" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A128">
+        <v>51</v>
+      </c>
+      <c r="B128" s="10" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A129">
+        <v>52</v>
+      </c>
+      <c r="B129" s="10" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A130">
+        <v>53</v>
+      </c>
+      <c r="B130" s="10" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A131">
+        <v>54</v>
+      </c>
+      <c r="B131" s="10" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A132">
+        <v>55</v>
+      </c>
+      <c r="B132" s="10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/气象/气温颜色/气温颜色.xlsx
+++ b/气象/气温颜色/气温颜色.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文档\GIT SYNC\default\气象\气温颜色\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{566B2409-D597-4964-910E-8A3A6CE99033}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52C7E6EC-CD80-468F-8D80-14A9E535BF37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="3" xr2:uid="{F39AAB59-546E-453B-99D4-F4E8F2388CF9}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{F39AAB59-546E-453B-99D4-F4E8F2388CF9}"/>
   </bookViews>
   <sheets>
     <sheet name="渐变色" sheetId="1" r:id="rId1"/>
@@ -1428,9 +1428,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
@@ -2747,7 +2745,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A2:B132"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
